--- a/dtpu_configurations/only_integer8/120mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer8/120mhz/graph.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A0EF25-2FD9-4940-8C41-9C82EEA2D6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7AA683-278E-40E9-9C80-09E3C3587E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilization" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="46">
   <si>
     <t>3x3</t>
   </si>
@@ -113,9 +113,6 @@
     <t>BUFG</t>
   </si>
   <si>
-    <t>PL static</t>
-  </si>
-  <si>
     <t>PL dynamic</t>
   </si>
   <si>
@@ -166,11 +163,17 @@
   <si>
     <t>6,25%</t>
   </si>
+  <si>
+    <t>PL Static</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -221,6 +224,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3404,2160 +3413,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.08</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$E$2:$E$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.04</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$G$2:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$2:$H$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PL static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$I$2:$I$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$J$2:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$L$2:$L$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-88AB-43E8-9D3F-EB00EA71694B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="563807448"/>
-        <c:axId val="563813024"/>
-        <c:axId val="507872712"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="563807448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563813024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="563813024"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563807448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="507872712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="563813024"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6336-4962-BE25-60C82461ECEC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6336-4962-BE25-60C82461ECEC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-6336-4962-BE25-60C82461ECEC}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$H$22:$J$22</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>PL dynamic</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PL static</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$23:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.0810810810810807E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7837837837837843E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.85135135135135132</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C77A-47E4-8500-A7B864F84C9B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-ED7A-48C3-B9F6-876DE0B6301C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-ED7A-48C3-B9F6-876DE0B6301C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-ED7A-48C3-B9F6-876DE0B6301C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-ED7A-48C3-B9F6-876DE0B6301C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-ED7A-48C3-B9F6-876DE0B6301C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-ED7A-48C3-B9F6-876DE0B6301C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-ED7A-48C3-B9F6-876DE0B6301C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$22:$G$22</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Signals</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Logic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>I/O</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$A$23:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.44444444444444448</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22222222222222224</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.5555555555555559E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5555555555555559E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-355C-4B14-A292-AB1BE4145250}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5678,126 +3533,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7290,1538 +5025,6 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8964,119 +5167,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A412A8E6-D11D-4181-BD37-1E3908BBACEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="33" name="Grafico 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{971CB01F-8FCA-4631-8279-AA857C4BAA73}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="34" name="Grafico 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D37159-1968-4BC0-8624-938195B4536B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9408,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -9447,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>5.34</v>
@@ -9462,10 +5552,10 @@
         <v>2.73</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -9473,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1">
         <v>5.34</v>
@@ -9488,10 +5578,10 @@
         <v>5.45</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -9499,7 +5589,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>5.44</v>
@@ -9514,10 +5604,10 @@
         <v>9.09</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -9525,7 +5615,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>5.53</v>
@@ -9540,10 +5630,10 @@
         <v>13.64</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -9551,7 +5641,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1">
         <v>5.61</v>
@@ -9566,10 +5656,10 @@
         <v>19.09</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -9577,7 +5667,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>5.7</v>
@@ -9592,10 +5682,10 @@
         <v>25.45</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -9603,7 +5693,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1">
         <v>5.81</v>
@@ -9618,10 +5708,10 @@
         <v>40.909999999999997</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -9629,7 +5719,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1">
         <v>6.08</v>
@@ -9644,10 +5734,10 @@
         <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -9655,7 +5745,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>6.18</v>
@@ -9670,10 +5760,10 @@
         <v>82.73</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -9681,7 +5771,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
         <v>6.45</v>
@@ -9696,10 +5786,10 @@
         <v>100</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -9707,7 +5797,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1">
         <v>6.51</v>
@@ -9722,10 +5812,10 @@
         <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -9733,7 +5823,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>6.82</v>
@@ -9748,10 +5838,10 @@
         <v>100</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -9759,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>6.99</v>
@@ -9774,10 +5864,10 @@
         <v>100</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
@@ -9959,15 +6049,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:K14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -9990,629 +6083,1166 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s">
         <v>21</v>
       </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.05</v>
-      </c>
-      <c r="C2">
-        <v>0.02</v>
-      </c>
-      <c r="D2">
-        <v>0.02</v>
-      </c>
-      <c r="E2">
-        <v>0.01</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="6">
+        <v>4.7108381986618042E-2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.9473830237984657E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.5438690781593323E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>7.7563216909766197E-3</v>
+      </c>
+      <c r="F2" s="6">
+        <v>7.0740884439146612E-6</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2.5293768849223852E-3</v>
+      </c>
+      <c r="H2" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.12570902705192566</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1.4834043979644775</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>9.4622045755386353E-2</v>
+      </c>
+      <c r="N2" t="s">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="O2" s="1">
+        <f>B2/L2</f>
+        <v>0.49785841777719547</v>
+      </c>
+      <c r="P2" s="1">
+        <f>C2/L2</f>
+        <v>0.20580648074686242</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>D2/L2</f>
+        <v>0.16316166764672255</v>
+      </c>
+      <c r="R2" s="1">
+        <f>E2/L2</f>
+        <v>8.1971612736296093E-2</v>
+      </c>
+      <c r="S2" s="1">
+        <f>F2/L2</f>
+        <v>7.4761525048849082E-5</v>
+      </c>
+      <c r="T2" s="1">
+        <f>G2/L2</f>
+        <v>2.6731369679548495E-2</v>
+      </c>
+      <c r="U2" s="1">
+        <f>H2/L2</f>
+        <v>2.4231912201113138E-2</v>
+      </c>
+      <c r="W2" t="s">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.48</v>
+      <c r="X2" s="1">
+        <f>I2/K2</f>
+        <v>0.85146931402546089</v>
+      </c>
+      <c r="Y2" s="1">
+        <f>J2/K2</f>
+        <v>8.4743598727645114E-2</v>
+      </c>
+      <c r="Z2" s="1">
+        <f>L2/K2</f>
+        <v>6.378708724689397E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.05</v>
-      </c>
-      <c r="C3">
-        <v>0.02</v>
-      </c>
-      <c r="D3">
-        <v>0.02</v>
-      </c>
-      <c r="E3">
-        <v>0.01</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.49</v>
+      <c r="B3" s="6">
+        <v>4.8542272299528122E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.07083560526371E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1.576191745698452E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>9.9548110738396645E-3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.533165727276355E-5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2.6054931804537773E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.12684966623783112</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1.4898395538330078</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L14" si="0">K3-J3-I3</f>
+        <v>9.9916562438011169E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.48582808610578487</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.2072564902889317</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.15775079798970573</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>9.963124061654631E-2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>3.5361161764030385E-4</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.6076689558552826E-2</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.2947878200440936E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.84779151010427534</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>8.5143172572829523E-2</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>6.7065317322895127E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.05</v>
-      </c>
-      <c r="C4">
-        <v>0.02</v>
-      </c>
-      <c r="D4">
-        <v>0.02</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.5</v>
+      <c r="B4" s="6">
+        <v>4.7583352774381638E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.1377613767981529E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.6460960730910301E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.4935988932847977E-2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6.6116655943915248E-5</v>
+      </c>
+      <c r="G4" s="6">
+        <v>4.1066906414926052E-3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.12690545618534088</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.4968180656433105</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.10683928430080414</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44537318913903934</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20009132322333076</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15407217334557161</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13979866142491146</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="5"/>
+        <v>6.188421831595666E-4</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="6"/>
+        <v>3.8438020886870504E-2</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1460955303469538E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84383891011785395</v>
+      </c>
+      <c r="Y4" s="1">
+        <f t="shared" si="9"/>
+        <v>8.4783487785336675E-2</v>
+      </c>
+      <c r="Z4" s="1">
+        <f t="shared" si="10"/>
+        <v>7.1377602096809392E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.05</v>
-      </c>
-      <c r="C5">
-        <v>0.02</v>
-      </c>
-      <c r="D5">
-        <v>0.02</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.5</v>
+      <c r="B5" s="6">
+        <v>5.0796370953321457E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.2769782692193985E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.6329379752278328E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.3000603765249252E-2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6.5148509747814387E-5</v>
+      </c>
+      <c r="G5" s="6">
+        <v>4.1197845712304115E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.12744410336017609</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.4999070167541504</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.10938958823680878</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46436202724665582</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20815310724912414</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14927727597738241</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="4"/>
+        <v>0.11884681142692743</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="5"/>
+        <v>5.9556408244978108E-4</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7661578561862939E-2</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0960615557584644E-2</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84210108429954478</v>
+      </c>
+      <c r="Y5" s="1">
+        <f t="shared" si="9"/>
+        <v>8.4968002640569973E-2</v>
+      </c>
+      <c r="Z5" s="1">
+        <f t="shared" si="10"/>
+        <v>7.2930913059885236E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.05</v>
-      </c>
-      <c r="C6">
-        <v>0.02</v>
-      </c>
-      <c r="D6">
-        <v>0.02</v>
-      </c>
-      <c r="E6">
-        <v>0.02</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.01</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.51</v>
+      <c r="B6" s="6">
+        <v>5.2522625774145126E-2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.4465631693601608E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1.6713330522179604E-2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.5278449282050133E-2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.2881679362617433E-4</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5.2794604562222958E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.12750536203384399</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.5074753761291504</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.11689668893814087</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44930807066690259</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20929276881869835</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14297522602221802</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13070044516089885</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="5"/>
+        <v>2.8128837233377659E-3</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="6"/>
+        <v>4.5163473013474904E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="7"/>
+        <v>1.961452566246397E-2</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="8"/>
+        <v>0.83787327153591518</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="9"/>
+        <v>8.458205291634574E-2</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="10"/>
+        <v>7.7544675547739056E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.05</v>
-      </c>
-      <c r="C7">
-        <v>0.02</v>
-      </c>
-      <c r="D7">
-        <v>0.02</v>
-      </c>
-      <c r="E7">
-        <v>0.01</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.5</v>
+      <c r="B7" s="6">
+        <v>5.306592583656311E-2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.2335292771458626E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1.6455020755529404E-2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1.1386074125766754E-2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.965907959965989E-5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2.9165004380047321E-3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.12795518338680267</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1.4995653629302979</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.10853685438632965</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48892080147890143</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20578533344957325</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15160768062209415</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10490514203810244</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4180116508364131E-4</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6871061028023203E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="7"/>
+        <v>2.1125295347817104E-2</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="1">
+        <f t="shared" si="8"/>
+        <v>0.84229294459629045</v>
+      </c>
+      <c r="Y7" s="1">
+        <f t="shared" si="9"/>
+        <v>8.5328180117981448E-2</v>
+      </c>
+      <c r="Z7" s="1">
+        <f t="shared" si="10"/>
+        <v>7.2378875285728117E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.06</v>
-      </c>
-      <c r="C8">
-        <v>0.03</v>
-      </c>
-      <c r="D8">
-        <v>0.02</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.51</v>
+      <c r="B8" s="6">
+        <v>5.5562980473041534E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.6546556502580643E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1.6965266317129135E-2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.2398133054375648E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>7.2872484452091157E-5</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3.2823765650391579E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.12802611291408539</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.5082360506057739</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.11713661253452301</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47434341211349074</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22662902681052627</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14483316488368705</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.10584336345497115</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2211534784321909E-4</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="6"/>
+        <v>2.8021781525155182E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="7"/>
+        <v>1.9574350456467798E-2</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" s="1">
+        <f t="shared" si="8"/>
+        <v>0.83745069258214566</v>
+      </c>
+      <c r="Y8" s="1">
+        <f t="shared" si="9"/>
+        <v>8.4884665674623327E-2</v>
+      </c>
+      <c r="Z8" s="1">
+        <f t="shared" si="10"/>
+        <v>7.7664641743230969E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.06</v>
-      </c>
-      <c r="C9">
-        <v>0.03</v>
-      </c>
-      <c r="D9">
-        <v>0.02</v>
-      </c>
-      <c r="E9">
-        <v>0.02</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.52</v>
+      <c r="B9" s="6">
+        <v>5.7219907641410828E-2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2.5717625394463539E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.7073176801204681E-2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.1867349743843079E-2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2.7041687280870974E-4</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3.70822474360466E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.12811721861362457</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.5193557739257813</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.12816523015499115</v>
+      </c>
+      <c r="N9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O14" si="11">B9/L9</f>
+        <v>0.44645421829473075</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ref="P9:P14" si="12">C9/L9</f>
+        <v>0.2006599244066665</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ref="Q9:Q14" si="13">D9/L9</f>
+        <v>0.13321223533526186</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" ref="R9:R14" si="14">E9/L9</f>
+        <v>0.17061842527336574</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" ref="S9:S14" si="15">F9/L9</f>
+        <v>2.1099082214551686E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" ref="T9:T14" si="16">G9/L9</f>
+        <v>2.8933157137238211E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" ref="U9:U14" si="17">H9/L9</f>
+        <v>1.7889977666028796E-2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X9" s="1">
+        <f t="shared" ref="X9:X14" si="18">I9/K9</f>
+        <v>0.8313216343618971</v>
+      </c>
+      <c r="Y9" s="1">
+        <f t="shared" ref="Y9:Y14" si="19">J9/K9</f>
+        <v>8.4323382852318662E-2</v>
+      </c>
+      <c r="Z9" s="1">
+        <f t="shared" ref="Z9:Z14" si="20">L9/K9</f>
+        <v>8.4354982785784224E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.06</v>
-      </c>
-      <c r="C10">
-        <v>0.03</v>
-      </c>
-      <c r="D10">
-        <v>0.02</v>
-      </c>
-      <c r="E10">
-        <v>0.02</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.52</v>
+      <c r="B10" s="6">
+        <v>6.1458710581064224E-2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3.1626135110855103E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.7653655260801315E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.6987212002277374E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>7.9215399455279112E-4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2.3380231577903032E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.1281585693359375</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.5243961811065674</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.13316428661346436</v>
+      </c>
+      <c r="N10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="11"/>
+        <v>0.46152547461512916</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="12"/>
+        <v>0.23749712415503871</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13257049400973803</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="14"/>
+        <v>0.12756582439844485</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="15"/>
+        <v>5.9486970170326116E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="16"/>
+        <v>1.7557433882981532E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="17"/>
+        <v>1.7218378615955411E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="18"/>
+        <v>0.82857287417257486</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="19"/>
+        <v>8.4071694041444336E-2</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" si="20"/>
+        <v>8.7355431785980778E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C11">
-        <v>0.03</v>
-      </c>
-      <c r="D11">
-        <v>0.02</v>
-      </c>
-      <c r="E11">
-        <v>0.02</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.53</v>
+      <c r="B11" s="6">
+        <v>6.5447211265563965E-2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.2893955707550049E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.8913622945547104E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.5524448826909065E-2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.0253441287204623E-3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3.0755859334021807E-3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.1282084584236145</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.5304703712463379</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.13918858766555786</v>
+      </c>
+      <c r="N11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="11"/>
+        <v>0.47020529745456163</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="12"/>
+        <v>0.23632652834000728</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13588486859995111</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="14"/>
+        <v>0.1115353570812227</v>
+      </c>
+      <c r="S11" s="1">
+        <f t="shared" si="15"/>
+        <v>7.3665818866138488E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <f t="shared" si="16"/>
+        <v>2.2096538121301971E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6473140100706708E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="1">
+        <f t="shared" si="18"/>
+        <v>0.82528440202901954</v>
+      </c>
+      <c r="Y11" s="1">
+        <f t="shared" si="19"/>
+        <v>8.3770624268412336E-2</v>
+      </c>
+      <c r="Z11" s="1">
+        <f t="shared" si="20"/>
+        <v>9.0944973702568113E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C12">
-        <v>0.04</v>
-      </c>
-      <c r="D12">
-        <v>0.02</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.53</v>
+      <c r="B12" s="6">
+        <v>6.8942487239837646E-2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.652644157409668E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.9377833232283592E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.0840859264135361E-2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>8.6102169007062912E-4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.8667895346879959E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.12822116911411285</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.5320183038711548</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0.1407238095998764</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="11"/>
+        <v>0.48991345129060659</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="12"/>
+        <v>0.25956120487324241</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="13"/>
+        <v>0.13770117002503754</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="14"/>
+        <v>7.7036425427647617E-2</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="15"/>
+        <v>6.1185217520673581E-3</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" si="16"/>
+        <v>1.3265626762065967E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6293426901628209E-2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>10</v>
+      </c>
+      <c r="X12" s="1">
+        <f t="shared" si="18"/>
+        <v>0.82445054472625412</v>
+      </c>
+      <c r="Y12" s="1">
+        <f t="shared" si="19"/>
+        <v>8.3694280146731498E-2</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" si="20"/>
+        <v>9.1855175127014341E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.08</v>
-      </c>
-      <c r="C13">
-        <v>0.05</v>
-      </c>
-      <c r="D13">
-        <v>0.02</v>
-      </c>
-      <c r="E13">
-        <v>0.04</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.01</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.59</v>
+      <c r="B13" s="6">
+        <v>7.5731575489044189E-2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.1651336252689362E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2.1774575114250183E-2</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3.8604319095611572E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.1668591760098934E-3</v>
+      </c>
+      <c r="G13" s="6">
+        <v>5.0473734736442566E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.12868356704711914</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.5880411863327026</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.19628429412841797</v>
+      </c>
+      <c r="N13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="11"/>
+        <v>0.38582595630141048</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="12"/>
+        <v>0.26314553837352239</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="13"/>
+        <v>0.11093386361317469</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="14"/>
+        <v>0.19667553772975285</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="15"/>
+        <v>5.9447404143628622E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="16"/>
+        <v>2.5714606948338103E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="17"/>
+        <v>1.1681388545199302E-2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="1">
+        <f t="shared" si="18"/>
+        <v>0.79536559632562664</v>
+      </c>
+      <c r="Y13" s="1">
+        <f t="shared" si="19"/>
+        <v>8.1032890176035571E-2</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="20"/>
+        <v>0.12360151349833783</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.08</v>
-      </c>
-      <c r="C14">
-        <v>0.05</v>
-      </c>
-      <c r="D14">
-        <v>0.02</v>
-      </c>
-      <c r="E14">
-        <v>0.04</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.59</v>
+      <c r="B14" s="6">
+        <v>7.8157253563404083E-2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5.392812192440033E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2.309330552816391E-2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.9906296879053116E-2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9.5172866713255644E-4</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3.8298361469060183E-3</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2.2928731050342321E-3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1.2630733251571655</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.128732830286026</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.593981146812439</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.20217499136924744</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="11"/>
+        <v>0.38658220304142166</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="12"/>
+        <v>0.26673982553018799</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="13"/>
+        <v>0.11422434284162705</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="14"/>
+        <v>0.19738493178005995</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="15"/>
+        <v>4.7074500198411905E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="16"/>
+        <v>1.8943174528996513E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="17"/>
+        <v>1.1341032288442566E-2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="1">
+        <f t="shared" si="18"/>
+        <v>0.79240167155238583</v>
+      </c>
+      <c r="Y14" s="1">
+        <f t="shared" si="19"/>
+        <v>8.0761827417757892E-2</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="20"/>
+        <v>0.1268365010298563</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <f>SUM(A19:D19)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.04</v>
-      </c>
-      <c r="B19">
-        <v>0.02</v>
-      </c>
-      <c r="C19">
-        <v>0.01</v>
-      </c>
-      <c r="D19">
-        <v>0.01</v>
-      </c>
-      <c r="E19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H19">
-        <f>1.48-1.26-0.13</f>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="I19">
-        <v>0.13</v>
-      </c>
-      <c r="J19">
-        <v>1.26</v>
-      </c>
-      <c r="K19">
-        <v>1.48</v>
-      </c>
-      <c r="L19">
-        <f>SUM(A19:D19)</f>
-        <v>7.9999999999999988E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <f>0.04/0.09</f>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="B23" s="2">
-        <f>0.02/0.09</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="C23" s="2">
-        <f>0.01/0.09</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="D23" s="2">
-        <f>0.01/0.09</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="E23" s="2">
-        <f>0.005/0.09</f>
-        <v>5.5555555555555559E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <f>0/0.09</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <f>0.005/0.09</f>
-        <v>5.5555555555555559E-2</v>
-      </c>
-      <c r="H23" s="2">
-        <f>0.09/1.48</f>
-        <v>6.0810810810810807E-2</v>
-      </c>
-      <c r="I23" s="2">
-        <f>0.13/1.48</f>
-        <v>8.7837837837837843E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <f>1.26/1.48</f>
-        <v>0.85135135135135132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -10627,6 +7257,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>